--- a/SampleTask2/src/dataEngine/DataEngine.xlsx
+++ b/SampleTask2/src/dataEngine/DataEngine.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="10920" windowHeight="5955"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="10590" windowHeight="3900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
     <sheet name="Test Steps" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J18"/>
+  <oleSize ref="A1:E11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="140">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>lnk_Logout</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>txtbx_Nickname</t>
@@ -793,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -820,10 +817,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
         <v>139</v>
-      </c>
-      <c r="B2" t="s">
-        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -836,11 +833,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,24 +877,22 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
+      <c r="G2"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -908,16 +903,14 @@
       <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
+      <c r="G3"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -928,16 +921,14 @@
       <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
+      <c r="G4"/>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -945,16 +936,14 @@
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
+      <c r="G5"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
@@ -962,634 +951,560 @@
       <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
+      <c r="G6"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
+      <c r="G7"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+      <c r="G8"/>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+      <c r="G9"/>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
+      <c r="G10"/>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
+      <c r="G11"/>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G12"/>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
+      <c r="G13"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G14"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G15"/>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
+      <c r="G16"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
+      <c r="G17"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G18"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
+      <c r="G19"/>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
+      <c r="G20"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
+      <c r="G21"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G22"/>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
+      <c r="G23"/>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G24"/>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G25"/>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
+      <c r="G26"/>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
+      <c r="G27"/>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G28"/>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G29"/>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
+      <c r="G30"/>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G31"/>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
+      <c r="G32"/>
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G33"/>
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s">
-        <v>24</v>
-      </c>
+      <c r="G34"/>
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" t="s">
-        <v>24</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G35"/>
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
+      <c r="G36"/>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" t="s">
-        <v>24</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G37"/>
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" t="s">
-        <v>24</v>
-      </c>
+      <c r="G38"/>
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G39" t="s">
-        <v>24</v>
-      </c>
+      <c r="G39"/>
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G40" t="s">
-        <v>24</v>
-      </c>
+      <c r="G40"/>
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G41" t="s">
-        <v>24</v>
-      </c>
+      <c r="G41"/>
     </row>
     <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
+      <c r="G42"/>
     </row>
     <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>13</v>
@@ -1597,353 +1512,311 @@
       <c r="F43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G43" t="s">
-        <v>24</v>
-      </c>
+      <c r="G43"/>
     </row>
     <row r="44" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G44"/>
     </row>
     <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G45"/>
     </row>
     <row r="46" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G46" t="s">
-        <v>24</v>
-      </c>
+      <c r="G46"/>
     </row>
     <row r="47" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" t="s">
-        <v>24</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G47"/>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G48"/>
     </row>
     <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G49" t="s">
-        <v>24</v>
-      </c>
+      <c r="G49"/>
     </row>
     <row r="50" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
+      <c r="G50"/>
     </row>
     <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G51" t="s">
-        <v>24</v>
-      </c>
+      <c r="G51"/>
     </row>
     <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G52"/>
     </row>
     <row r="53" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G53" t="s">
-        <v>24</v>
-      </c>
+      <c r="G53"/>
     </row>
     <row r="54" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G54" t="s">
-        <v>24</v>
-      </c>
+      <c r="G54"/>
     </row>
     <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G55" t="s">
-        <v>24</v>
-      </c>
+      <c r="G55"/>
     </row>
     <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" t="s">
-        <v>24</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G56"/>
     </row>
     <row r="57" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G57" t="s">
-        <v>24</v>
-      </c>
+      <c r="G57"/>
     </row>
     <row r="58" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G58" t="s">
-        <v>24</v>
-      </c>
+      <c r="G58"/>
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G59" t="s">
-        <v>24</v>
-      </c>
+      <c r="G59"/>
     </row>
     <row r="60" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G60" t="s">
-        <v>24</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G60"/>
     </row>
     <row r="61" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G61" t="s">
-        <v>24</v>
-      </c>
+      <c r="G61"/>
     </row>
     <row r="62" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
+      <c r="G62"/>
     </row>
     <row r="63" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G63" t="s">
-        <v>24</v>
-      </c>
+      <c r="G63"/>
     </row>
     <row r="64" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>13</v>
@@ -1951,175 +1824,155 @@
       <c r="F64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G64" t="s">
-        <v>24</v>
-      </c>
+      <c r="G64"/>
     </row>
     <row r="65" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G65" t="s">
-        <v>24</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G65"/>
     </row>
     <row r="66" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" t="s">
-        <v>24</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G66"/>
     </row>
     <row r="67" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G67" t="s">
-        <v>24</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G67"/>
     </row>
     <row r="68" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G68"/>
     </row>
     <row r="69" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G69" t="s">
-        <v>24</v>
-      </c>
+      <c r="G69"/>
     </row>
     <row r="70" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G70" t="s">
-        <v>24</v>
-      </c>
+      <c r="G70"/>
     </row>
     <row r="71" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G71" t="s">
-        <v>24</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G71"/>
     </row>
     <row r="72" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G72" t="s">
-        <v>24</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G72"/>
     </row>
     <row r="73" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G73" t="s">
-        <v>24</v>
-      </c>
+      <c r="G73"/>
     </row>
     <row r="74" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>23</v>
@@ -2127,23 +1980,19 @@
       <c r="E74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G74" t="s">
-        <v>24</v>
-      </c>
+      <c r="G74"/>
     </row>
     <row r="75" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G75" t="s">
-        <v>24</v>
-      </c>
+      <c r="G75"/>
     </row>
     <row r="76" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
